--- a/data/income_statement/2digits/total/95_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/95_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>95-Repair of computers and personal and household goods</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>95-Repair of computers and personal and household goods</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1087822.14092</v>
@@ -956,37 +862,42 @@
         <v>1205054.16626</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1572446.84632</v>
+        <v>1572639.77498</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1388067.76735</v>
+        <v>1388400.34661</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1412180.01435</v>
+        <v>1412689.55715</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1633141.9964</v>
+        <v>1639523.97963</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2127025.27236</v>
+        <v>2137833.89879</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2417707.22041</v>
+        <v>2417719.22041</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2718723.024410001</v>
+        <v>2718723.02441</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3299788.300679999</v>
+        <v>3312477.679479999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3316577.01956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3391689.92141</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4372282.498</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1005930.07281</v>
@@ -995,19 +906,19 @@
         <v>1120559.00751</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1465895.71766</v>
+        <v>1466088.64632</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1264946.03441</v>
+        <v>1265278.61367</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1291553.3912</v>
+        <v>1292061.52503</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1495596.69873</v>
+        <v>1501032.52886</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1956533.2522</v>
+        <v>1967020.79259</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>2237197.94092</v>
@@ -1016,16 +927,21 @@
         <v>2527019.93673</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3116799.409399999</v>
+        <v>3126142.95247</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3107986.62663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3176670.287690001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4070996.344</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>35278.02041</v>
@@ -1037,16 +953,16 @@
         <v>51304.12651</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>61601.84132000001</v>
+        <v>61601.84132</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>64097.67933999999</v>
+        <v>64097.67934</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>66808.00290000001</v>
+        <v>66808.00289999999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>61029.61873</v>
+        <v>61211.17434999999</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>66171.94689000001</v>
@@ -1055,16 +971,21 @@
         <v>83110.26642</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>64415.48084000001</v>
+        <v>67590.09980000001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>74539.33693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>76969.10437</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>139916.797</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>46614.0477</v>
@@ -1073,37 +994,42 @@
         <v>46151.77916</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>55247.00215000001</v>
+        <v>55247.00215</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>61519.89162</v>
+        <v>61519.89161999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>56528.94381</v>
+        <v>56530.35278</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>70737.29477000001</v>
+        <v>71683.44787</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>109462.40143</v>
+        <v>109601.93185</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>114337.3326</v>
+        <v>114349.3326</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>108592.82126</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>118573.41044</v>
+        <v>118744.62721</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>134051.056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>138050.52935</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>161369.357</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>15772.85019</v>
@@ -1118,13 +1044,13 @@
         <v>11458.51829</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>13056.40098</v>
+        <v>13058.49237</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>16279.48219</v>
+        <v>16332.18343</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>40763.92698999999</v>
+        <v>40829.10895999999</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>25957.13918</v>
@@ -1133,16 +1059,21 @@
         <v>24201.08572</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>36545.20394</v>
+        <v>36573.68215</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>45755.04244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>46512.10141</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>56228.824</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>10667.618</v>
@@ -1154,16 +1085,16 @@
         <v>12395.49725</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>9678.027530000001</v>
+        <v>9678.027529999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10772.02467</v>
+        <v>10774.11606</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>11844.29861</v>
+        <v>11896.68205</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>28727.12955</v>
+        <v>28792.31152</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>14594.75663</v>
@@ -1172,19 +1103,24 @@
         <v>23051.34864</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>34096.73796</v>
+        <v>34124.79372</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>42997.01893</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>43505.3233</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>53218.693</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>4895.24461</v>
+        <v>4895.244610000001</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>1286.19411</v>
@@ -1208,19 +1144,24 @@
         <v>11048.65386</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>866.66326</v>
+        <v>866.6632600000002</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>1880.25503</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>750.79923</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>767.2143000000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>776.088</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>209.98758</v>
@@ -1238,7 +1179,7 @@
         <v>129.5033</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>130.01246</v>
+        <v>130.33026</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>353.7024900000001</v>
@@ -1250,16 +1191,21 @@
         <v>283.07382</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>568.21095</v>
+        <v>568.6334000000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2007.22428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2239.56381</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2234.043</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1072049.29073</v>
@@ -1268,76 +1214,86 @@
         <v>1190642.8485</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1558448.13684</v>
+        <v>1558641.0655</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1376609.24906</v>
+        <v>1376941.82832</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1399123.61337</v>
+        <v>1399631.06478</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1616862.51421</v>
+        <v>1623191.7962</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2086261.34537</v>
+        <v>2097004.78983</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2391750.08123</v>
+        <v>2391762.08123</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2694521.93869</v>
+        <v>2694521.938690001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3263243.09674</v>
+        <v>3275903.99733</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3270821.97712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3345177.82</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4316053.674</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>818104.8691900001</v>
+        <v>818104.8691899999</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>916585.4445799999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1241696.22202</v>
+        <v>1241993.36554</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1057693.10929</v>
+        <v>1057812.71058</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1078706.43592</v>
+        <v>1079014.21624</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1259429.2328</v>
+        <v>1263620.87644</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1632891.62755</v>
+        <v>1641053.25117</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1891018.3777</v>
+        <v>1891022.6137</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>2148413.71746</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2702354.08027</v>
+        <v>2709779.98404</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2649299.51841</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2707990.920770001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3564655.007</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>36776.06029</v>
@@ -1352,13 +1308,13 @@
         <v>46086.66133</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>55921.40447</v>
+        <v>55959.25447</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>73448.22902</v>
+        <v>73653.31796000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>104140.90973</v>
+        <v>104534.7922</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>84683.44082999999</v>
@@ -1367,16 +1323,21 @@
         <v>113045.14634</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>119367.44507</v>
+        <v>119597.9682</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>135741.35516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>139486.11282</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>177935.605</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>497424.36875</v>
@@ -1385,19 +1346,19 @@
         <v>525311.16294</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>713911.6453199999</v>
+        <v>713914.29392</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>502296.4729299999</v>
+        <v>502297.60928</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>487523.7194899999</v>
+        <v>487605.94925</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>562935.8072799999</v>
+        <v>565028.25971</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>801445.0239100001</v>
+        <v>806669.0865100001</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>964700.51375</v>
@@ -1406,16 +1367,21 @@
         <v>1017330.38348</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1169373.17983</v>
+        <v>1173066.61972</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1268805.16496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1305363.43675</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1818140.51</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>283014.9383</v>
@@ -1424,40 +1390,45 @@
         <v>352203.78383</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>473758.05038</v>
+        <v>474052.5453</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>508087.82284</v>
+        <v>508206.28778</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>531087.24792</v>
+        <v>531274.94848</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>610141.45921</v>
+        <v>612035.56148</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>711598.5958199999</v>
+        <v>714142.2743699999</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>822364.87787</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>988402.8095399999</v>
+        <v>988402.80954</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1393965.51889</v>
+        <v>1397467.45964</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1204944.01712</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1223067.77756</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1545730.93</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>889.5018500000001</v>
+        <v>889.50185</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>757.8895299999999</v>
@@ -1478,7 +1449,7 @@
         <v>15707.09809</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>19269.54525</v>
+        <v>19273.78125</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>29635.3781</v>
@@ -1487,13 +1458,18 @@
         <v>19647.93648</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>39808.98117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>40073.59364</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>22847.962</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>253944.42154</v>
@@ -1502,37 +1478,42 @@
         <v>274057.40392</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>316751.91482</v>
+        <v>316647.6999600001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>318916.13977</v>
+        <v>319129.1177400001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>320417.1774500001</v>
+        <v>320616.84854</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>357433.2814100001</v>
+        <v>359570.9197600001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>453369.71782</v>
+        <v>455951.53866</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>500731.7035300001</v>
+        <v>500739.46753</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>546108.22123</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>560889.01647</v>
+        <v>566124.0132899999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>621522.45871</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>637186.89923</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>751398.667</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>226902.11158</v>
@@ -1541,37 +1522,42 @@
         <v>233633.04702</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>308546.71902</v>
+        <v>308593.48848</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>280285.10821</v>
+        <v>280381.81831</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>277017.97342</v>
+        <v>277299.71581</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>294834.96008</v>
+        <v>297201.26945</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>349805.32112</v>
+        <v>352318.53997</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>414099.68851</v>
+        <v>414102.9112</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>433321.86353</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>487989.00341</v>
+        <v>493013.03646</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>527932.7477399999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>540435.67112</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>576730.493</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>4183.35008</v>
@@ -1604,19 +1590,24 @@
         <v>2228.99348</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3318.39914</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3256.79538</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>934.918</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>65329.28374</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>61946.67411</v>
+        <v>61946.67410999999</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>96478.59307999999</v>
@@ -1625,13 +1616,13 @@
         <v>54538.54162</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>58192.10783</v>
+        <v>58216.14305</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>61332.95981</v>
+        <v>61776.35003</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>69386.37926999999</v>
+        <v>70187.08245</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>86320.46685</v>
@@ -1640,16 +1631,21 @@
         <v>95197.24986</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>117192.99044</v>
+        <v>117775.47311</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>128183.30415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>132571.12792</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>138603.05</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>157389.47776</v>
@@ -1658,37 +1654,42 @@
         <v>168278.47381</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>208047.11767</v>
+        <v>208093.88713</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>223285.43607</v>
+        <v>223382.14617</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>217125.51383</v>
+        <v>217383.221</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>230136.78354</v>
+        <v>232059.70269</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>277854.59127</v>
+        <v>279567.10694</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>310646.22131</v>
+        <v>310649.444</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>336759.98729</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>368567.01949</v>
+        <v>373008.56987</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>396431.04445</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>404607.74782</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>437192.525</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>27042.30996</v>
@@ -1697,37 +1698,42 @@
         <v>40424.3569</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>8205.195799999998</v>
+        <v>8054.211479999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>38631.03156</v>
+        <v>38747.29942999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>43399.20403</v>
+        <v>43317.13273</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>62598.32133</v>
+        <v>62369.65031</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>103564.3967</v>
+        <v>103632.99869</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>86632.01501999999</v>
+        <v>86636.55632999999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>112786.3577</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>72900.01306</v>
+        <v>73110.97683</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>93589.71097</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>96751.22811000001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>174668.174</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>33116.56085</v>
@@ -1742,34 +1748,39 @@
         <v>37145.62544</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>44650.01388000001</v>
+        <v>44650.83281</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>37392.80933</v>
+        <v>37424.73806</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>47978.56297000001</v>
+        <v>48404.55762000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>31845.11922</v>
+        <v>31844.46842</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>37969.41834</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>103032.4542</v>
+        <v>103257.30797</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>66064.01246000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>66355.24806</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>102548.761</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>51.27522999999999</v>
+        <v>51.27523</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>5.42407</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>793.02585</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>412.094</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>369.81039</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1960.12602</v>
@@ -1862,10 +1883,10 @@
         <v>2705.32523</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3431.17149</v>
+        <v>3453.12057</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3503.10761</v>
+        <v>3591.5117</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>3734.9028</v>
@@ -1874,16 +1895,21 @@
         <v>6924.928199999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>12355.69536</v>
+        <v>12370.93036</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>14294.20109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>14297.97294</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>10437.686</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>396.72178</v>
@@ -1901,7 +1927,7 @@
         <v>506.61968</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>669.9987399999999</v>
+        <v>669.99874</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>140.55865</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>87.44591</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>140.267</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>181.13634</v>
@@ -1952,16 +1983,21 @@
         <v>173.30203</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>952.1019599999998</v>
+        <v>952.10196</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>1094.25001</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>645.662</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>84.66358</v>
@@ -1994,13 +2030,18 @@
         <v>262.87061</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>222.13877</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>222.65364</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>720.807</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>24500.38406</v>
@@ -2018,10 +2059,10 @@
         <v>36308.89897</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>26329.92978</v>
+        <v>26339.57418</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>40238.49191999999</v>
+        <v>40499.55076000001</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>16548.19509</v>
@@ -2030,16 +2071,21 @@
         <v>19787.69326</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>68297.62493000001</v>
+        <v>68461.64525</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>28008.12199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>28065.13455</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>60147.73</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0.31264</v>
@@ -2054,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>93.23768</v>
+        <v>93.23768000000001</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>27.91852</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>160.69532</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>65.755</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>50.97817</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>80.32317000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>189.959</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>5521.152639999999</v>
@@ -2132,31 +2188,36 @@
         <v>5015.37663</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>3930.66683</v>
+        <v>3931.48576</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4133.29654</v>
+        <v>4133.63179</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3250.29183</v>
+        <v>3326.82355</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>9051.217510000002</v>
+        <v>9050.566710000001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>10195.60974</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>14244.5747</v>
+        <v>14290.17315</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>21323.81035</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>21553.74667</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>29788.261</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>28998.54911</v>
@@ -2171,13 +2232,13 @@
         <v>26395.39846</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>54505.74987000001</v>
+        <v>54505.7559</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>41819.48439</v>
+        <v>41824.06021</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>66784.44398000001</v>
+        <v>66822.20541</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>29915.01684</v>
@@ -2186,16 +2247,21 @@
         <v>32337.65328</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>58623.73389</v>
+        <v>58719.15707999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>35462.29323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>35816.30316</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>56633.582</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>464.27375</v>
@@ -2225,16 +2291,21 @@
         <v>916.19703</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2574.1016</v>
+        <v>2578.14953</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1501.65259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1517.54784</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3043.724</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>3641.51521</v>
@@ -2267,13 +2338,18 @@
         <v>4138.33905</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>5335.22456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>5333.89956</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>5534.348</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>24.3786</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>86.16894000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>42.712</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>23253.68413</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>18579.96492999999</v>
+        <v>18579.96493</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>49132.59834</v>
@@ -2330,10 +2411,10 @@
         <v>50347.58469</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>32478.73418</v>
+        <v>32483.19142</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>53150.69481999999</v>
+        <v>53188.34768000001</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>14873.34709</v>
@@ -2342,16 +2423,21 @@
         <v>15173.49898</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>44957.53515</v>
+        <v>45044.80867</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>17888.08025</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>17974.853</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>34224.74</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>43.26448</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>155.42577</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>62.281</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>78.87196</v>
@@ -2425,32 +2516,37 @@
       <c r="M42" s="48" t="n">
         <v>80.62065</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>273.792</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1492.56098</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>583.28471</v>
+        <v>583.2847100000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>7180.487469999999</v>
+        <v>7180.48747</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>2473.985729999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2810.23263</v>
+        <v>2810.23866</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>8301.038320000001</v>
+        <v>8301.1569</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>10577.73229</v>
+        <v>10577.84086</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>12164.17285</v>
@@ -2459,16 +2555,21 @@
         <v>12186.17217</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6496.03466</v>
+        <v>6500.1364</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>10415.12047</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>10667.7874</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>13451.985</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>18234.80488</v>
@@ -2483,31 +2584,36 @@
         <v>11933.59551</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>9852.821219999998</v>
+        <v>9861.40684</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>13055.58814</v>
+        <v>13074.94366</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>16499.5712</v>
+        <v>16550.33977</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>16613.91167</v>
+        <v>16616.37273</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>21398.453</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>32594.88919</v>
+        <v>32645.28271</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>34240.16465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>35689.78809</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>32496.88</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>17957.67218</v>
@@ -2522,31 +2628,36 @@
         <v>10823.53351</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>9618.640660000001</v>
+        <v>9627.226280000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>12901.15093</v>
+        <v>12906.78606</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>16338.62651</v>
+        <v>16365.15053</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>16475.65573</v>
+        <v>16478.11679</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>20985.19713</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>32055.73423</v>
+        <v>32106.12775</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>33522.44905</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>34830.25453</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>31610.663</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>277.1327</v>
@@ -2564,10 +2675,10 @@
         <v>234.18056</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>154.43721</v>
+        <v>168.1576</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>160.94469</v>
+        <v>185.18924</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>138.25594</v>
@@ -2576,16 +2687,21 @@
         <v>413.25587</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>539.15496</v>
+        <v>539.1549600000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>717.7156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>859.5335600000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>886.217</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>12925.51682</v>
@@ -2594,37 +2710,42 @@
         <v>35289.17127</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-30438.10289999998</v>
+        <v>-30589.08722</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>37447.66303</v>
+        <v>37563.9309</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>23690.64682</v>
+        <v>23600.8028</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>45116.05813</v>
+        <v>44895.3845</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>68258.94448999999</v>
+        <v>68665.01113</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>71948.20572999999</v>
+        <v>71949.63518000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>97019.66975999999</v>
+        <v>97019.66976</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>84713.84417999999</v>
+        <v>85003.84500999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>89951.26555000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>91600.38492</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>188086.473</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>4830.94962</v>
@@ -2636,52 +2757,57 @@
         <v>15315.73637</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>8621.407260000002</v>
+        <v>8621.40726</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>8080.55344</v>
+        <v>8086.802139999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>8130.782859999999</v>
+        <v>8151.648339999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>9662.496779999999</v>
+        <v>9732.18786</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>23620.51524</v>
+        <v>23621.68899</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>21855.06553</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>27654.70304</v>
+        <v>27721.92319</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>27965.38215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>28287.36579</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>30734.749</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>92.50460000000001</v>
+        <v>92.5046</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>154.13251</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>994.67395</v>
+        <v>994.6739500000001</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>262.96109</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>78.92421999999999</v>
+        <v>78.92422000000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>341.72498</v>
+        <v>342.17721</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>43.12792</v>
@@ -2696,73 +2822,83 @@
         <v>190.65927</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>618.55642</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>688.5564199999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>19.379</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>4738.44502</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>6641.75698</v>
+        <v>6641.756979999999</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>14321.06242</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>8358.446170000001</v>
+        <v>8358.446169999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8001.62922</v>
+        <v>8007.87792</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>7789.057880000001</v>
+        <v>7809.47113</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>9619.368859999999</v>
+        <v>9689.059939999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>23456.03084</v>
+        <v>23457.20459</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>21372.10937</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>27464.04377</v>
+        <v>27531.26392</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>27346.82573</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>27598.80937</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>30715.37</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>5984.58428</v>
+        <v>5984.584279999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>9552.436149999998</v>
+        <v>9552.43615</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>44921.96282</v>
+        <v>44921.96281999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>19643.71009</v>
+        <v>19654.5321</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>20565.53169</v>
+        <v>20565.63864</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>24674.78507</v>
+        <v>24719.67218</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>26125.44039</v>
+        <v>26197.84551</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>41033.84741999999</v>
@@ -2771,16 +2907,21 @@
         <v>31140.82474</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>42664.07966</v>
+        <v>42761.39867</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>14953.24771</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>15131.43599</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>21001.462</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>103.79375</v>
@@ -2798,7 +2939,7 @@
         <v>111.72104</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>311.5076999999999</v>
+        <v>311.5077</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>230.59227</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>43.18949000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>47.692</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>607.1662099999999</v>
+        <v>607.16621</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>1250.0087</v>
@@ -2837,7 +2983,7 @@
         <v>397.81857</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1204.05377</v>
+        <v>1218.92653</v>
       </c>
       <c r="I53" s="48" t="n">
         <v>742.8801900000001</v>
@@ -2849,37 +2995,42 @@
         <v>399.72578</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>252.18745</v>
+        <v>284.01428</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>449.69065</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>492.1444100000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>950.307</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>5273.624319999998</v>
+        <v>5273.62432</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>8253.064259999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>42834.37807</v>
+        <v>42834.37806999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>18428.14634</v>
+        <v>18438.96835</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>20055.99208</v>
+        <v>20056.09903</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>23159.2236</v>
+        <v>23189.23795</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>25151.96793</v>
+        <v>25224.37305</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>40624.52277</v>
@@ -2888,16 +3039,21 @@
         <v>30459.46066</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>42406.32726000001</v>
+        <v>42471.81944</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>14460.36757</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>14596.10209</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>20003.463</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>11771.88216</v>
@@ -2906,40 +3062,45 @@
         <v>32532.62461</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-60044.32934999999</v>
+        <v>-60195.31367</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>26425.3602</v>
+        <v>26530.80606</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>11205.66857</v>
+        <v>11121.9663</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>28572.05592</v>
+        <v>28327.36066</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>51796.00088000001</v>
+        <v>52199.35348000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>54534.87355000001</v>
+        <v>54537.47675</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>87733.91055</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>69704.46756</v>
+        <v>69964.36953</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>102963.39999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>104756.31472</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>197819.76</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>7370.554059999999</v>
+        <v>7370.55406</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>9004.104969999999</v>
@@ -2951,13 +3112,13 @@
         <v>11615.36346</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>11318.33429</v>
+        <v>11318.68391</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>13284.54849</v>
+        <v>13291.99687</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>17622.72877</v>
+        <v>17624.76689</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>19408.79388</v>
@@ -2966,52 +3127,60 @@
         <v>24127.16687</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>35610.27689</v>
+        <v>35806.28237</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>31904.66746</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>32106.15253</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>52247.909</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4401.3281</v>
+        <v>4401.328100000001</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>23528.51964</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-73955.68781</v>
+        <v>-74106.67212999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>14809.99674</v>
+        <v>14915.4426</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-112.6657200000039</v>
+        <v>-196.7176100000003</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>15287.50743</v>
+        <v>15035.36379</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>34173.27211000001</v>
+        <v>34574.58659</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>35126.07967</v>
+        <v>35128.68287</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>63606.74368</v>
+        <v>63606.74367999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>34094.19067</v>
+        <v>34158.08716</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>71058.73253000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>72650.16219</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>145571.851</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2082</v>
@@ -3038,34 +3210,37 @@
         <v>2105</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2141</v>
+        <v>2144</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1732</v>
+        <v>1749</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1655</v>
+        <v>1676</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1776</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1783</v>
+        <v>1837</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1885</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>